--- a/data/trans_orig/P16B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4759F738-DC54-4473-B32D-9FB64E35CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87ECC1F2-D674-46C1-8C98-A7974540F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9AED2A00-F47C-4D9B-900F-C0C9F4648941}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97716972-0FD6-4F48-BD88-4D0378DD6B9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="199">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>94,37%</t>
   </si>
   <si>
-    <t>77,65%</t>
+    <t>74,99%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>96,39%</t>
   </si>
   <si>
-    <t>81,94%</t>
+    <t>82,17%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>84,78%</t>
+    <t>84,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,35%</t>
+    <t>25,01%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>18,06%</t>
+    <t>17,83%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>15,22%</t>
+    <t>15,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,43 +127,43 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>93,34%</t>
+    <t>94,2%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>92,91%</t>
+    <t>92,22%</t>
   </si>
   <si>
     <t>98,24%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>7,09%</t>
+    <t>7,78%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -172,7 +172,7 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>93,16%</t>
+    <t>93,41%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -181,19 +181,19 @@
     <t>98,12%</t>
   </si>
   <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>2,53%</t>
@@ -202,25 +202,25 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>6,84%</t>
+    <t>6,59%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -229,13 +229,13 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>94,36%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,77%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>0%</t>
@@ -244,13 +244,13 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>5,64%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -259,16 +259,16 @@
     <t>96,03%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>95,07%</t>
+    <t>95,04%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -277,16 +277,19 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -295,294 +298,303 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>4,96%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>95,81%</t>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>98,99%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
+    <t>96,15%</t>
+  </si>
+  <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>0,78%</t>
   </si>
   <si>
+    <t>3,85%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
     <t>98,71%</t>
   </si>
   <si>
@@ -607,13 +619,10 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,41%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -622,13 +631,10 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29C40F5-035B-4940-BC59-2684EBFD3345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBE92FD-494B-4846-BBA3-A1B6F187B095}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1817,10 +1823,10 @@
         <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1841,13 @@
         <v>4227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1850,13 +1856,13 @@
         <v>2970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1865,13 +1871,13 @@
         <v>7197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1945,13 @@
         <v>403333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>535</v>
@@ -1954,13 +1960,13 @@
         <v>550433</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>944</v>
@@ -1969,13 +1975,13 @@
         <v>953765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1996,13 @@
         <v>9382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2005,13 +2011,13 @@
         <v>10917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2020,13 +2026,13 @@
         <v>20299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,7 +2088,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD016FB1-2DEF-49CB-BBBB-C85823632A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D6240D-CCD2-4487-B267-2ADBF43FEC53}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2120,7 +2126,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2230,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -2245,7 +2251,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -2260,7 +2266,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -2284,7 +2290,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2299,7 +2305,7 @@
         <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2314,7 +2320,7 @@
         <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,10 +2388,10 @@
         <v>117619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2400,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -2412,10 +2418,10 @@
         <v>264683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2433,13 +2439,13 @@
         <v>977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2454,7 +2460,7 @@
         <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2463,13 +2469,13 @@
         <v>977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2555,7 +2561,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -2570,7 +2576,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2594,7 +2600,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2609,7 +2615,7 @@
         <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2624,7 +2630,7 @@
         <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -2710,7 +2716,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -2725,7 +2731,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -2749,7 +2755,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2764,7 +2770,7 @@
         <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2779,7 +2785,7 @@
         <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,7 +2856,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -2862,13 +2868,13 @@
         <v>241764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -2877,13 +2883,13 @@
         <v>413461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,7 +2910,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2913,13 +2919,13 @@
         <v>3031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2928,13 +2934,13 @@
         <v>3031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,10 +3008,10 @@
         <v>566511</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3017,13 +3023,13 @@
         <v>735255</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7">
         <v>1198</v>
@@ -3032,13 +3038,13 @@
         <v>1301764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3059,13 @@
         <v>977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3068,13 +3074,13 @@
         <v>3031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3083,13 +3089,13 @@
         <v>4009</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,7 +3151,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F653E52-F426-4D07-80A7-2BE2509587C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B72D438-DA56-4E6E-88D6-1DBFECD5F107}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3183,7 +3189,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -3308,7 +3314,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3323,7 +3329,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -3347,7 +3353,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3362,7 +3368,7 @@
         <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3377,7 +3383,7 @@
         <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3478,7 +3484,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -3502,7 +3508,7 @@
         <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3517,7 +3523,7 @@
         <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3532,7 +3538,7 @@
         <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3609,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -3615,10 +3621,10 @@
         <v>170606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3630,10 +3636,10 @@
         <v>315019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3657,7 +3663,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3666,13 +3672,13 @@
         <v>973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3681,13 +3687,13 @@
         <v>973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3764,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -3770,10 +3776,10 @@
         <v>138255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3785,10 +3791,10 @@
         <v>246726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3812,7 +3818,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3821,13 +3827,13 @@
         <v>1089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3836,13 +3842,13 @@
         <v>1089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,7 +3919,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3928,7 +3934,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3943,7 +3949,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3967,7 +3973,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3982,7 +3988,7 @@
         <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3997,7 +4003,7 @@
         <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,7 +4074,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -4080,10 +4086,10 @@
         <v>614864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4095,10 +4101,10 @@
         <v>1113092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4122,7 +4128,7 @@
         <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4131,13 +4137,13 @@
         <v>2062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4146,13 +4152,13 @@
         <v>2062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,7 +4214,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87ECC1F2-D674-46C1-8C98-A7974540F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4722E6-272B-4D48-BABC-7162EDB08C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97716972-0FD6-4F48-BD88-4D0378DD6B9E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E20065D-EF2C-4EC3-8070-F822DA9BD5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="205">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,7 +76,7 @@
     <t>94,37%</t>
   </si>
   <si>
-    <t>74,99%</t>
+    <t>72,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>96,39%</t>
   </si>
   <si>
-    <t>82,17%</t>
+    <t>82,13%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>84,6%</t>
+    <t>85,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,513 +103,525 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,01%</t>
+    <t>27,49%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>17,83%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>15,4%</t>
+    <t>14,19%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>94,2%</t>
+    <t>94,22%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>92,22%</t>
+    <t>92,57%</t>
   </si>
   <si>
     <t>98,24%</t>
   </si>
   <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
@@ -619,10 +631,13 @@
     <t>99,67%</t>
   </si>
   <si>
+    <t>98,83%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,31%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -631,10 +646,13 @@
     <t>0,33%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,64%</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBE92FD-494B-4846-BBA3-A1B6F187B095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F3A249-2CF3-473C-AC0B-CF031C8970AB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2109,7 +2127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D6240D-CCD2-4487-B267-2ADBF43FEC53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8D4034-B1B1-4EF4-A957-B817FD684F67}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2561,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -2576,7 +2594,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2615,7 +2633,7 @@
         <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2630,7 +2648,7 @@
         <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -2716,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -2731,7 +2749,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -2755,7 +2773,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2770,7 +2788,7 @@
         <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2785,7 +2803,7 @@
         <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -2868,13 +2886,13 @@
         <v>241764</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -2883,13 +2901,13 @@
         <v>413461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2928,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2919,13 +2937,13 @@
         <v>3031</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2934,7 +2952,7 @@
         <v>3031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>146</v>
@@ -3172,7 +3190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B72D438-DA56-4E6E-88D6-1DBFECD5F107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC7357B-7DFF-4676-ABEF-B89EE264679F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,7 +3347,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -3353,7 +3371,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3383,7 +3401,7 @@
         <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,7 +3472,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3484,7 +3502,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -3508,7 +3526,7 @@
         <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3538,7 +3556,7 @@
         <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -3621,10 +3639,10 @@
         <v>170606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3639,7 +3657,7 @@
         <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3663,7 +3681,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3672,13 +3690,13 @@
         <v>973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3693,7 +3711,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3782,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -3776,10 +3794,10 @@
         <v>138255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3791,10 +3809,10 @@
         <v>246726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3818,7 +3836,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3827,13 +3845,13 @@
         <v>1089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3842,13 +3860,13 @@
         <v>1089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3937,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3934,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3949,7 +3967,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3973,7 +3991,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3988,7 +4006,7 @@
         <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4003,7 +4021,7 @@
         <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,7 +4092,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -4086,10 +4104,10 @@
         <v>614864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4101,10 +4119,10 @@
         <v>1113092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4128,7 +4146,7 @@
         <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4137,13 +4155,13 @@
         <v>2062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4152,13 +4170,13 @@
         <v>2062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4722E6-272B-4D48-BABC-7162EDB08C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B187E4-7993-4E59-B009-8561335DC2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E20065D-EF2C-4EC3-8070-F822DA9BD5C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B378183-857E-47CB-86EC-A1C3A9292605}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="197">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>72,51%</t>
+    <t>77,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>96,39%</t>
   </si>
   <si>
-    <t>82,13%</t>
+    <t>81,94%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>85,81%</t>
+    <t>84,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>27,49%</t>
+    <t>22,35%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>18,06%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>14,19%</t>
+    <t>15,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,19 +127,19 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>93,34%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>92,57%</t>
+    <t>92,91%</t>
   </si>
   <si>
     <t>98,24%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>95,23%</t>
   </si>
   <si>
     <t>99,46%</t>
@@ -148,13 +148,13 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>6,66%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>7,43%</t>
+    <t>7,09%</t>
   </si>
   <si>
     <t>1,76%</t>
@@ -163,7 +163,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,77%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -172,7 +172,7 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>93,14%</t>
+    <t>93,16%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -181,19 +181,19 @@
     <t>98,12%</t>
   </si>
   <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>2,53%</t>
@@ -202,25 +202,25 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>6,84%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -229,13 +229,13 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>93,74%</t>
+    <t>95,13%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,7%</t>
+    <t>96,77%</t>
   </si>
   <si>
     <t>0%</t>
@@ -244,13 +244,13 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>6,26%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -259,16 +259,16 @@
     <t>96,03%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>95,06%</t>
+    <t>95,07%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -277,351 +277,327 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,0%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
@@ -631,13 +607,13 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,83%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,41%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -646,13 +622,13 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,59%</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F3A249-2CF3-473C-AC0B-CF031C8970AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF01BD9-7F37-4ABD-BFE1-B663E6BFCC93}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1841,10 +1817,10 @@
         <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,13 +1835,13 @@
         <v>4227</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1874,13 +1850,13 @@
         <v>2970</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1889,13 +1865,13 @@
         <v>7197</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1939,13 @@
         <v>403333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="H19" s="7">
         <v>535</v>
@@ -1978,13 +1954,13 @@
         <v>550433</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>944</v>
@@ -1993,13 +1969,13 @@
         <v>953765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +1990,13 @@
         <v>9382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2029,13 +2005,13 @@
         <v>10917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2044,13 +2020,13 @@
         <v>20299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,7 +2082,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8D4034-B1B1-4EF4-A957-B817FD684F67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAA4EBA-8805-460B-A124-FFE289FCE915}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2144,7 +2120,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2254,7 +2230,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -2269,7 +2245,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -2284,7 +2260,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -2308,7 +2284,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2323,7 +2299,7 @@
         <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2338,7 +2314,7 @@
         <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,10 +2382,10 @@
         <v>117619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2424,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -2436,10 +2412,10 @@
         <v>264683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2457,13 +2433,13 @@
         <v>977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2478,7 +2454,7 @@
         <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2487,13 +2463,13 @@
         <v>977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,7 +2540,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2579,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -2594,7 +2570,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2618,7 +2594,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2633,7 +2609,7 @@
         <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2648,7 +2624,7 @@
         <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -2734,7 +2710,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -2749,7 +2725,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -2773,7 +2749,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2788,7 +2764,7 @@
         <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2803,7 +2779,7 @@
         <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,7 +2850,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -2886,13 +2862,13 @@
         <v>241764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -2901,13 +2877,13 @@
         <v>413461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,7 +2904,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2937,13 +2913,13 @@
         <v>3031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2952,13 +2928,13 @@
         <v>3031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +3002,10 @@
         <v>566511</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3041,13 +3017,13 @@
         <v>735255</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>1198</v>
@@ -3056,13 +3032,13 @@
         <v>1301764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3053,13 @@
         <v>977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3092,13 +3068,13 @@
         <v>3031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3107,13 +3083,13 @@
         <v>4009</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,7 +3145,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC7357B-7DFF-4676-ABEF-B89EE264679F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD22FEB6-4E23-488E-9F48-CAB5ADDFE047}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3207,7 +3183,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,7 +3293,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -3332,7 +3308,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3347,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -3371,7 +3347,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3386,7 +3362,7 @@
         <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3401,7 +3377,7 @@
         <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3448,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3502,7 +3478,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -3526,7 +3502,7 @@
         <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3541,7 +3517,7 @@
         <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3556,7 +3532,7 @@
         <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,7 +3603,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -3639,10 +3615,10 @@
         <v>170606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3654,10 +3630,10 @@
         <v>315019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3681,7 +3657,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3690,13 +3666,13 @@
         <v>973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3705,13 +3681,13 @@
         <v>973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -3794,10 +3770,10 @@
         <v>138255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3809,10 +3785,10 @@
         <v>246726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3836,7 +3812,7 @@
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3845,13 +3821,13 @@
         <v>1089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3860,13 +3836,13 @@
         <v>1089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3913,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3952,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3967,7 +3943,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -3991,7 +3967,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4006,7 +3982,7 @@
         <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4021,7 +3997,7 @@
         <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,7 +4068,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -4104,10 +4080,10 @@
         <v>614864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4119,10 +4095,10 @@
         <v>1113092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4146,7 +4122,7 @@
         <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4155,13 +4131,13 @@
         <v>2062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4170,13 +4146,13 @@
         <v>2062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4208,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B187E4-7993-4E59-B009-8561335DC2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9C50DF-B7B2-457D-AEC3-49A3F3BF3A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B378183-857E-47CB-86EC-A1C3A9292605}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0CD8AB51-D585-4AEC-B502-C2D0CFC19196}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="174">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -67,267 +67,246 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>5,63%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>4,19%</t>
   </si>
   <si>
@@ -352,60 +331,48 @@
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
     <t>1,09%</t>
   </si>
   <si>
@@ -433,18 +400,12 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
     <t>96,34%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
     <t>98,04%</t>
   </si>
   <si>
@@ -454,18 +415,12 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>0,04%</t>
   </si>
   <si>
@@ -523,42 +478,24 @@
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>97,65%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
     <t>98,14%</t>
   </si>
   <si>
@@ -604,9 +541,6 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
     <t>98,96%</t>
   </si>
   <si>
@@ -617,9 +551,6 @@
   </si>
   <si>
     <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -1040,8 +971,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF01BD9-7F37-4ABD-BFE1-B663E6BFCC93}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA60132E-43A7-4377-B1B3-E2DE78F525A6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1158,10 +1089,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7">
-        <v>19951</v>
+        <v>96603</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1173,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I4" s="7">
-        <v>23134</v>
+        <v>110568</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1185,73 +1116,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="N4" s="7">
-        <v>43086</v>
+        <v>207171</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1191</v>
+        <v>2086</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>867</v>
+        <v>2905</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>2057</v>
+        <v>4991</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1260,153 +1191,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>21142</v>
+        <v>98689</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="I6" s="7">
-        <v>24001</v>
+        <v>113473</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="N6" s="7">
-        <v>45143</v>
+        <v>212162</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7">
-        <v>76653</v>
+        <v>118330</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7">
-        <v>87434</v>
+        <v>167407</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="N7" s="7">
-        <v>164086</v>
+        <v>285737</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>895</v>
+        <v>3069</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2038</v>
+        <v>3214</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>2933</v>
+        <v>6283</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,153 +1346,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>77548</v>
+        <v>121399</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I9" s="7">
-        <v>89472</v>
+        <v>170621</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="N9" s="7">
-        <v>167019</v>
+        <v>292020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>118330</v>
+        <v>86185</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="I10" s="7">
-        <v>167407</v>
+        <v>113385</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="N10" s="7">
-        <v>285737</v>
+        <v>199570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3069</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>3214</v>
+        <v>1829</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>6283</v>
+        <v>1829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,153 +1501,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7">
-        <v>121399</v>
+        <v>86185</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="I12" s="7">
-        <v>170621</v>
+        <v>115214</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="N12" s="7">
-        <v>292020</v>
+        <v>201399</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>86185</v>
+        <v>102214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="I13" s="7">
-        <v>113385</v>
+        <v>159072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="N13" s="7">
-        <v>199570</v>
+        <v>261286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>4227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1829</v>
+        <v>2970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>1829</v>
+        <v>7197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,153 +1656,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D15" s="7">
-        <v>86185</v>
+        <v>106441</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="I15" s="7">
-        <v>115214</v>
+        <v>162042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="N15" s="7">
-        <v>201399</v>
+        <v>268483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>114</v>
+        <v>409</v>
       </c>
       <c r="D16" s="7">
-        <v>102214</v>
+        <v>403333</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="I16" s="7">
-        <v>159072</v>
+        <v>550433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
-        <v>267</v>
+        <v>944</v>
       </c>
       <c r="N16" s="7">
-        <v>261286</v>
+        <v>953765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>4227</v>
+        <v>9382</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>2970</v>
+        <v>10917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>7197</v>
+        <v>20299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,217 +1811,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>119</v>
+        <v>419</v>
       </c>
       <c r="D18" s="7">
-        <v>106441</v>
+        <v>412715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>156</v>
+        <v>546</v>
       </c>
       <c r="I18" s="7">
-        <v>162042</v>
+        <v>561350</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>275</v>
+        <v>965</v>
       </c>
       <c r="N18" s="7">
-        <v>268483</v>
+        <v>974064</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>409</v>
-      </c>
-      <c r="D19" s="7">
-        <v>403333</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="7">
-        <v>535</v>
-      </c>
-      <c r="I19" s="7">
-        <v>550433</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>944</v>
-      </c>
-      <c r="N19" s="7">
-        <v>953765</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>9382</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="7">
-        <v>11</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10917</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="7">
-        <v>21</v>
-      </c>
-      <c r="N20" s="7">
-        <v>20299</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>419</v>
-      </c>
-      <c r="D21" s="7">
-        <v>412715</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>546</v>
-      </c>
-      <c r="I21" s="7">
-        <v>561350</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>965</v>
-      </c>
-      <c r="N21" s="7">
-        <v>974064</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2103,8 +1878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAA4EBA-8805-460B-A124-FFE289FCE915}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D52E41-8D0B-44B6-A5E1-AD67412D429B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2120,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2221,70 +1996,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D4" s="7">
-        <v>14467</v>
+        <v>132086</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="I4" s="7">
-        <v>18491</v>
+        <v>165555</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="N4" s="7">
-        <v>32958</v>
+        <v>297641</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2293,28 +2068,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,123 +2098,123 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D6" s="7">
-        <v>14467</v>
+        <v>133063</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="I6" s="7">
-        <v>18491</v>
+        <v>165555</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="N6" s="7">
-        <v>32958</v>
+        <v>298618</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>137</v>
+      </c>
+      <c r="D7" s="7">
+        <v>150926</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="7">
-        <v>117619</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="I7" s="7">
-        <v>147064</v>
+        <v>190951</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="N7" s="7">
-        <v>264683</v>
+        <v>341876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2448,28 +2223,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,108 +2253,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D9" s="7">
-        <v>118596</v>
+        <v>150926</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="I9" s="7">
-        <v>147064</v>
+        <v>190951</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="N9" s="7">
-        <v>265660</v>
+        <v>341876</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7">
-        <v>150926</v>
+        <v>111802</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="I10" s="7">
-        <v>190950</v>
+        <v>136985</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="N10" s="7">
-        <v>341876</v>
+        <v>248787</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2588,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2603,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2618,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,108 +2408,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="D12" s="7">
-        <v>150926</v>
+        <v>111802</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="I12" s="7">
-        <v>190950</v>
+        <v>136985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="N12" s="7">
-        <v>341876</v>
+        <v>248787</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="D13" s="7">
-        <v>111802</v>
+        <v>171697</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="I13" s="7">
-        <v>136985</v>
+        <v>241764</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
-        <v>225</v>
+        <v>384</v>
       </c>
       <c r="N13" s="7">
-        <v>248787</v>
+        <v>413461</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2743,43 +2518,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3031</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3031</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,78 +2563,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="D15" s="7">
-        <v>111802</v>
+        <v>171697</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="I15" s="7">
-        <v>136985</v>
+        <v>244795</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="N15" s="7">
-        <v>248787</v>
+        <v>416492</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>157</v>
+        <v>516</v>
       </c>
       <c r="D16" s="7">
-        <v>171697</v>
+        <v>566511</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>227</v>
+        <v>682</v>
       </c>
       <c r="I16" s="7">
-        <v>241764</v>
+        <v>735255</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>131</v>
@@ -2871,10 +2646,10 @@
         <v>133</v>
       </c>
       <c r="M16" s="7">
-        <v>384</v>
+        <v>1198</v>
       </c>
       <c r="N16" s="7">
-        <v>413461</v>
+        <v>1301764</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>134</v>
@@ -2889,22 +2664,22 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2913,28 +2688,28 @@
         <v>3031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>3031</v>
+        <v>4009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,217 +2718,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>157</v>
+        <v>517</v>
       </c>
       <c r="D18" s="7">
-        <v>171697</v>
+        <v>567488</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>230</v>
+        <v>685</v>
       </c>
       <c r="I18" s="7">
-        <v>244795</v>
+        <v>738286</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>387</v>
+        <v>1202</v>
       </c>
       <c r="N18" s="7">
-        <v>416492</v>
+        <v>1305773</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>516</v>
-      </c>
-      <c r="D19" s="7">
-        <v>566511</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>682</v>
-      </c>
-      <c r="I19" s="7">
-        <v>735255</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1198</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1301764</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>977</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3031</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4009</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>517</v>
-      </c>
-      <c r="D21" s="7">
-        <v>567488</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>685</v>
-      </c>
-      <c r="I21" s="7">
-        <v>738286</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1202</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1305773</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3166,8 +2785,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD22FEB6-4E23-488E-9F48-CAB5ADDFE047}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E35327B-F473-4C45-A615-6EC106AC4C43}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3183,7 +2802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3284,55 +2903,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7">
-        <v>22744</v>
+        <v>102157</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I4" s="7">
-        <v>16150</v>
+        <v>127328</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="N4" s="7">
-        <v>38894</v>
+        <v>229485</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3341,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3356,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3371,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,108 +3005,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>22744</v>
+        <v>102157</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I6" s="7">
-        <v>16150</v>
+        <v>127328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>38894</v>
+        <v>229485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D7" s="7">
-        <v>79413</v>
+        <v>144413</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="I7" s="7">
-        <v>111178</v>
+        <v>170606</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="M7" s="7">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N7" s="7">
-        <v>190591</v>
+        <v>315019</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3496,43 +3115,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,99 +3160,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D9" s="7">
-        <v>79413</v>
+        <v>144413</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="I9" s="7">
-        <v>111178</v>
+        <v>171579</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="N9" s="7">
-        <v>190591</v>
+        <v>315992</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>144413</v>
+        <v>108472</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>170606</v>
+        <v>138255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="N10" s="7">
-        <v>315019</v>
+        <v>246726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3642,7 +3261,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3651,43 +3270,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>973</v>
+        <v>1089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>973</v>
+        <v>1089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,108 +3315,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>144413</v>
+        <v>108472</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="I12" s="7">
-        <v>171579</v>
+        <v>139344</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="N12" s="7">
-        <v>315992</v>
+        <v>247815</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D13" s="7">
-        <v>108472</v>
+        <v>143187</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="I13" s="7">
-        <v>138255</v>
+        <v>178674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="7">
+        <v>295</v>
+      </c>
+      <c r="N13" s="7">
+        <v>321861</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="7">
-        <v>219</v>
-      </c>
-      <c r="N13" s="7">
-        <v>246726</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3806,43 +3425,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,108 +3470,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D15" s="7">
-        <v>108472</v>
+        <v>143187</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I15" s="7">
-        <v>139344</v>
+        <v>178674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="N15" s="7">
-        <v>247815</v>
+        <v>321861</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>148</v>
+        <v>495</v>
       </c>
       <c r="D16" s="7">
-        <v>143187</v>
+        <v>498229</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
-        <v>147</v>
+        <v>524</v>
       </c>
       <c r="I16" s="7">
-        <v>178674</v>
+        <v>614864</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="M16" s="7">
-        <v>295</v>
+        <v>1019</v>
       </c>
       <c r="N16" s="7">
-        <v>321861</v>
+        <v>1113092</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3961,43 +3580,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,217 +3625,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>148</v>
+        <v>495</v>
       </c>
       <c r="D18" s="7">
-        <v>143187</v>
+        <v>498229</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>147</v>
+        <v>526</v>
       </c>
       <c r="I18" s="7">
-        <v>178674</v>
+        <v>616926</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>295</v>
+        <v>1021</v>
       </c>
       <c r="N18" s="7">
-        <v>321861</v>
+        <v>1115154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>495</v>
-      </c>
-      <c r="D19" s="7">
-        <v>498229</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="7">
-        <v>524</v>
-      </c>
-      <c r="I19" s="7">
-        <v>614864</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1019</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1113092</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2062</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2062</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>495</v>
-      </c>
-      <c r="D21" s="7">
-        <v>498229</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>526</v>
-      </c>
-      <c r="I21" s="7">
-        <v>616926</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1021</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1115154</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
